--- a/data/hotels_by_city/Houston/Houston_shard_639.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_639.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="336">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56311-d555269-Reviews-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Super-8-By-Wyndham-Montgomery-Lake-Conroe.h1200049.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,897 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r593654375-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>555269</t>
+  </si>
+  <si>
+    <t>593654375</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Charged twice for my room and then charged again when we did not stay and cancelled reservation</t>
+  </si>
+  <si>
+    <t>Do not stay, Managemnet is horrible. Told me I was making up stories when I called to ask about room charge without a stay.  This was my second issue.  Also, I was charged twice and when I called to ask for an explanation the manager blamed Expedia. I called Expedia and they said it was Super 8 ‘s fault for the duplication, it was and then eventually refunded.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>goodmanSanAngelo, Front Office Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded July 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2018</t>
+  </si>
+  <si>
+    <t>Do not stay, Managemnet is horrible. Told me I was making up stories when I called to ask about room charge without a stay.  This was my second issue.  Also, I was charged twice and when I called to ask for an explanation the manager blamed Expedia. I called Expedia and they said it was Super 8 ‘s fault for the duplication, it was and then eventually refunded.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r591202415-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>591202415</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Clean pool, great view of the lake!</t>
+  </si>
+  <si>
+    <t>Very conveniently located near shopping and lake amenities. Friendly staff, they were very helpful and resourceful! Breakfast was pretty good and Shipley's Donuts is right across the driveway!! Nice clean rooms and they're are in the process of remodeling!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r590653544-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>590653544</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Just..don't.</t>
+  </si>
+  <si>
+    <t>Terrible service, rude peopleGross gross gross nasty room with broken furniture and stains everywhereNo elevatorDangerous stairs all bent in the middle and warpedTrash everywhereGLARING lights from the parking lot, no way to block itTiny bathroomsBreakfast made me sick.AVOID at all costs if you can.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r560880695-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>560880695</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Worn Down Hotel</t>
+  </si>
+  <si>
+    <t>I rented a room for some guests staying over Christmas this year.  I could not believe the condition of the room.  I honestly tried to look for something positive to say but there is nothing about the room that is.  The room we had (110) is very dated, old, stale and musty.  The carpet, bedspread and bathroom all looked unclean and to be honest unhygienic.  The only positive i will give it is the person at the front desk was very friendly and nice.I would never rent a room at this hotel again unless it was made known they had undergone a total refurbishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>I rented a room for some guests staying over Christmas this year.  I could not believe the condition of the room.  I honestly tried to look for something positive to say but there is nothing about the room that is.  The room we had (110) is very dated, old, stale and musty.  The carpet, bedspread and bathroom all looked unclean and to be honest unhygienic.  The only positive i will give it is the person at the front desk was very friendly and nice.I would never rent a room at this hotel again unless it was made known they had undergone a total refurbishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r551041533-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>551041533</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>No breakfast. Even though hotel was affected by hurricane I...</t>
+  </si>
+  <si>
+    <t>No breakfast. Even though hotel was affected by hurricane I still feel that staff should have provided cereal or packaged muffins or something. At check in the desk clerk did not know how to add my Wyndam number. The bed was mediocreMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>No breakfast. Even though hotel was affected by hurricane I still feel that staff should have provided cereal or packaged muffins or something. At check in the desk clerk did not know how to add my Wyndam number. The bed was mediocreMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r539708654-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>539708654</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>racheal d, General Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r524425452-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>524425452</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Towels</t>
+  </si>
+  <si>
+    <t>I had one towel in my room, women need two towels. The bathroom was not cleaned very well, but I survived! Also doesn't lake front mean I should see a lake in front of my room. Didn't matter it was pouring and tornado warnings. I was happy to have a room. But really, I need two towels! The lady at the desk was very nice, she helped me when I was freakin about the tornado warning. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>racheal d, General Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>I had one towel in my room, women need two towels. The bathroom was not cleaned very well, but I survived! Also doesn't lake front mean I should see a lake in front of my room. Didn't matter it was pouring and tornado warnings. I was happy to have a room. But really, I need two towels! The lady at the desk was very nice, she helped me when I was freakin about the tornado warning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r512909459-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>512909459</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Nice big rooms with bathtubs! Breakfast consists of biscuits and gravy, sausage patties, waffles, cinnamon rolls, toast, oatmeal, cereal, fruit, coffee and juice! Cute pool and sufficient parking. Washer and dryer usage and low prices! Right across from Lake Conroe!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded August 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2017</t>
+  </si>
+  <si>
+    <t>Nice big rooms with bathtubs! Breakfast consists of biscuits and gravy, sausage patties, waffles, cinnamon rolls, toast, oatmeal, cereal, fruit, coffee and juice! Cute pool and sufficient parking. Washer and dryer usage and low prices! Right across from Lake Conroe!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r507303437-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>507303437</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Aweful hotel</t>
+  </si>
+  <si>
+    <t>The outside of the hotel is kind of nice, and they have little finger foods and coffee by the front desk. Everything else - aweful. Our room was disgusting, there were what looked like blood stains on the carpet, and the shower was dirty. The pool looked so dirty that you couldnt even see where the steps to get in it were. The receptionist was very unprofessional, she seemed like she did not want to be there, and she couldn't find our reservation until the second time we went to check-in. I would not recommend this hotel to anybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>vick d, General Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>The outside of the hotel is kind of nice, and they have little finger foods and coffee by the front desk. Everything else - aweful. Our room was disgusting, there were what looked like blood stains on the carpet, and the shower was dirty. The pool looked so dirty that you couldnt even see where the steps to get in it were. The receptionist was very unprofessional, she seemed like she did not want to be there, and she couldn't find our reservation until the second time we went to check-in. I would not recommend this hotel to anybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r486139901-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>486139901</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>NOT WORTH THE MONEY</t>
+  </si>
+  <si>
+    <t>Property is in disrepair dangerous stairway warped boards . Outdated and overall not any better than the motel 6 down the road  was a quiet stay though in the future we wont stay here housekeeping tried to get us out of the room before checkout timeMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Property is in disrepair dangerous stairway warped boards . Outdated and overall not any better than the motel 6 down the road  was a quiet stay though in the future we wont stay here housekeeping tried to get us out of the room before checkout timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r485935917-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>485935917</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel stay</t>
+  </si>
+  <si>
+    <t>This place was great! Service was awesome, rooms were clean. The staff was friendly and helped in every way we needed. I definitely would stay here again, and I recommend all my friends and family here! MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was great! Service was awesome, rooms were clean. The staff was friendly and helped in every way we needed. I definitely would stay here again, and I recommend all my friends and family here! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r485356341-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>485356341</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Dissappointed</t>
+  </si>
+  <si>
+    <t>When we checked in the room we were give was not made up.  The second room was the same.The attendant was not dressed appropriately.  The pool was green and nasty looking.  The breakfast was the worst hot breakfast we have ever had.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we checked in the room we were give was not made up.  The second room was the same.The attendant was not dressed appropriately.  The pool was green and nasty looking.  The breakfast was the worst hot breakfast we have ever had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r481066303-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>481066303</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Economical</t>
+  </si>
+  <si>
+    <t>I arrived about 4:30 for a 3pm check in,when I got to my room, the door was wide open.  Room was clean but hot it was in the mid 80's that day and humid.  AC did cool it down nicely by bed time.  No pillow cases on pillows.  Put wine in refrigerator and it cooled the wine down as I had hoped.  I've stayed at this location before but was always upstairs.  I liked being downstairs due to no elevators and being alone.  Although the folks overhead was heavy footed when walking - the thud of their walking around at 6:30 a.m. woke me from sleep.  Breakfast is served until 9 am on weekends (I do not know if this differs from weekdays).  For no additional cost, can't complain - gravy, biscuits, sausage, waffles, orange and apple juice, coffee and all condiments were out.  The parking is always a little hit &amp; miss.  The annual weekend I have been there, sometimes there's an empty spot and sometimes, it's out of the way by a shipping container near the building.  It's well lit and I feel safe.  PD has even driven through the parking lot on occasion.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived about 4:30 for a 3pm check in,when I got to my room, the door was wide open.  Room was clean but hot it was in the mid 80's that day and humid.  AC did cool it down nicely by bed time.  No pillow cases on pillows.  Put wine in refrigerator and it cooled the wine down as I had hoped.  I've stayed at this location before but was always upstairs.  I liked being downstairs due to no elevators and being alone.  Although the folks overhead was heavy footed when walking - the thud of their walking around at 6:30 a.m. woke me from sleep.  Breakfast is served until 9 am on weekends (I do not know if this differs from weekdays).  For no additional cost, can't complain - gravy, biscuits, sausage, waffles, orange and apple juice, coffee and all condiments were out.  The parking is always a little hit &amp; miss.  The annual weekend I have been there, sometimes there's an empty spot and sometimes, it's out of the way by a shipping container near the building.  It's well lit and I feel safe.  PD has even driven through the parking lot on occasion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r457980466-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>457980466</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>visit from my older sister.</t>
+  </si>
+  <si>
+    <t>Well the first room we had one of the beds was a little tilted &amp; I almost rolled out of it &amp; then  after being there 3-4 hours we found out the bathroom toliet had no pressure to flush the toliet. So management showed us another room looked good until we turned on the lights noticed bugs on the desk &amp; wall gross. So finally 3rd &amp; final room was ok, yes just ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Well the first room we had one of the beds was a little tilted &amp; I almost rolled out of it &amp; then  after being there 3-4 hours we found out the bathroom toliet had no pressure to flush the toliet. So management showed us another room looked good until we turned on the lights noticed bugs on the desk &amp; wall gross. So finally 3rd &amp; final room was ok, yes just ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r438181474-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>438181474</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant stay </t>
+  </si>
+  <si>
+    <t>Checked in great Services, easy to talk to and welcomed with a smile. Had no problems with the rooms, nice and quite, perfect for me to relax without worry. Had a bit of trouble with lighting and someone came to help immediately. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>goodmanSanAngelo, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Checked in great Services, easy to talk to and welcomed with a smile. Had no problems with the rooms, nice and quite, perfect for me to relax without worry. Had a bit of trouble with lighting and someone came to help immediately. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r413706853-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>413706853</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Super8</t>
+  </si>
+  <si>
+    <t>This super 8 is a good hotel there's clean rooms and friendly service there's also a pool, washers and dryers next time your looking to book come to super 8 on 105 there's usually always vacancys so give them a try you will enjoy your visit MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This super 8 is a good hotel there's clean rooms and friendly service there's also a pool, washers and dryers next time your looking to book come to super 8 on 105 there's usually always vacancys so give them a try you will enjoy your visit More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r405250121-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>405250121</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the best! </t>
+  </si>
+  <si>
+    <t>My family &amp; I travel very often, almost every other weekend &amp; this hotel has been our go to for YEARS! the Managment is awesome and very polite. Pool is clean, rooms are ready &amp; clean by time of arrival &amp; the staff is very helpful, always professional &amp; making sure everything is okay!! we Love it!! keep it up!! Rilee R. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>My family &amp; I travel very often, almost every other weekend &amp; this hotel has been our go to for YEARS! the Managment is awesome and very polite. Pool is clean, rooms are ready &amp; clean by time of arrival &amp; the staff is very helpful, always professional &amp; making sure everything is okay!! we Love it!! keep it up!! Rilee R. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r390504217-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>390504217</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Stay here for one night. The room was very clean. The WiFi was good. The price was reasonable. Bathrooms are clean and roomy! Good place  to stay located by few restaurant. I will stay here again definitely.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Stay here for one night. The room was very clean. The WiFi was good. The price was reasonable. Bathrooms are clean and roomy! Good place  to stay located by few restaurant. I will stay here again definitely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r388831853-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>388831853</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Nothing "Super" Here</t>
+  </si>
+  <si>
+    <t>We checked in at 5:15 pm on Friday 7-1-16. The room they gave us keys to had just started being made up, so they sent us to another room. The lady said she would meet us with keys.......right. Back to the office for keys. Room was OK but no TV remote. Back to the office. The remote I got would not turn on the TV or control volume. We were here for a wedding, and a family member checked in on Saturday........no towels. I realize this is a Super 8, but at these rates you deserve more. They make La Quinta look like the Marriott. We all avoided the green swimming pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in at 5:15 pm on Friday 7-1-16. The room they gave us keys to had just started being made up, so they sent us to another room. The lady said she would meet us with keys.......right. Back to the office for keys. Room was OK but no TV remote. Back to the office. The remote I got would not turn on the TV or control volume. We were here for a wedding, and a family member checked in on Saturday........no towels. I realize this is a Super 8, but at these rates you deserve more. They make La Quinta look like the Marriott. We all avoided the green swimming pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r382943720-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>382943720</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>we always stay here</t>
+  </si>
+  <si>
+    <t>We come for lots of events in historic Montgomery, and are always treated like family here. The rooms are cozy and the service is great.  They provide free wi-fi which keeps the kids happy and serve breakfast until 9am -good for us later risers!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We come for lots of events in historic Montgomery, and are always treated like family here. The rooms are cozy and the service is great.  They provide free wi-fi which keeps the kids happy and serve breakfast until 9am -good for us later risers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r379689965-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>379689965</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Don't ask for extra towels</t>
+  </si>
+  <si>
+    <t>The lady working the late shift will talk to you like you are a child if you ask for extra towels. She will say things like "that's too many towels for one person" with a look on her face that exudes the look of disgust. And it will take you literally 20 minutes to argue with her about how you are paying $75 a night and towels are an amenity that is included in the room. Then she will accuse you and say "people that ask for 4 extra towels on the same day they check in usually are the ones that end up stealing them from the hotel". The audacity this woman had to drag out the argument for 20 minutes just because she had some personal issues against giving out towels absolutely amazed me. She did finally give them to me only after my husband had worried why I was gone so long and had to come to the lobby to check on me. Also there is fuzzy mold growing on the edges of the carpet closest to the walls. Also it smells like a Tom cat came in the rooms and sprayed that awful ammonia cat smell that you just can't get rid of. And to top it all off... A homeless man living in the stairwell around the corner from our room got ahold of a master key off of a housekeeping cart and got into...The lady working the late shift will talk to you like you are a child if you ask for extra towels. She will say things like "that's too many towels for one person" with a look on her face that exudes the look of disgust. And it will take you literally 20 minutes to argue with her about how you are paying $75 a night and towels are an amenity that is included in the room. Then she will accuse you and say "people that ask for 4 extra towels on the same day they check in usually are the ones that end up stealing them from the hotel". The audacity this woman had to drag out the argument for 20 minutes just because she had some personal issues against giving out towels absolutely amazed me. She did finally give them to me only after my husband had worried why I was gone so long and had to come to the lobby to check on me. Also there is fuzzy mold growing on the edges of the carpet closest to the walls. Also it smells like a Tom cat came in the rooms and sprayed that awful ammonia cat smell that you just can't get rid of. And to top it all off... A homeless man living in the stairwell around the corner from our room got ahold of a master key off of a housekeeping cart and got into outlet room and stole clothes and a lot of medication including my friends insulin and needles... So it was a nightmare to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The lady working the late shift will talk to you like you are a child if you ask for extra towels. She will say things like "that's too many towels for one person" with a look on her face that exudes the look of disgust. And it will take you literally 20 minutes to argue with her about how you are paying $75 a night and towels are an amenity that is included in the room. Then she will accuse you and say "people that ask for 4 extra towels on the same day they check in usually are the ones that end up stealing them from the hotel". The audacity this woman had to drag out the argument for 20 minutes just because she had some personal issues against giving out towels absolutely amazed me. She did finally give them to me only after my husband had worried why I was gone so long and had to come to the lobby to check on me. Also there is fuzzy mold growing on the edges of the carpet closest to the walls. Also it smells like a Tom cat came in the rooms and sprayed that awful ammonia cat smell that you just can't get rid of. And to top it all off... A homeless man living in the stairwell around the corner from our room got ahold of a master key off of a housekeeping cart and got into...The lady working the late shift will talk to you like you are a child if you ask for extra towels. She will say things like "that's too many towels for one person" with a look on her face that exudes the look of disgust. And it will take you literally 20 minutes to argue with her about how you are paying $75 a night and towels are an amenity that is included in the room. Then she will accuse you and say "people that ask for 4 extra towels on the same day they check in usually are the ones that end up stealing them from the hotel". The audacity this woman had to drag out the argument for 20 minutes just because she had some personal issues against giving out towels absolutely amazed me. She did finally give them to me only after my husband had worried why I was gone so long and had to come to the lobby to check on me. Also there is fuzzy mold growing on the edges of the carpet closest to the walls. Also it smells like a Tom cat came in the rooms and sprayed that awful ammonia cat smell that you just can't get rid of. And to top it all off... A homeless man living in the stairwell around the corner from our room got ahold of a master key off of a housekeeping cart and got into outlet room and stole clothes and a lot of medication including my friends insulin and needles... So it was a nightmare to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r374688195-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>374688195</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Right in the middle of the action!</t>
+  </si>
+  <si>
+    <t>You can't beat the location for all the lake activities!  They will go out of their way to make sure your boat is safe and charging.  Lots of lake activities all around, bars, restaurants, boat and flyboard rentals right across the street.  Ask for upstairs lake view, it's great!  Oh, and don't miss the biscuits and gravy for breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>You can't beat the location for all the lake activities!  They will go out of their way to make sure your boat is safe and charging.  Lots of lake activities all around, bars, restaurants, boat and flyboard rentals right across the street.  Ask for upstairs lake view, it's great!  Oh, and don't miss the biscuits and gravy for breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r372943399-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>372943399</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>The only thing missing was the bed bugs</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights this weekend and I would have to say that I've stayed in hostels that are nicer. There were cigarette holes in the quilt, questionable white stains and you can't forget the blood splatter on the carpet. We also found a cockroach in the bathroom and the bath floods when you shower because the plug is faulty. The plus side was that the room was quite large, we had a king size bed. Breakfast is included but we weren't game enough to eat it after our room experience. It's 6-9am.Make sure you put the do not disturb on your door because housekeeping knocks on your door quite early. Actually they knocked twice before 9am.There was a tv and bar fridge in the room which was one of the redeeming qualities. But I can't get past the blood splatter etc. and have given 1 star due to this.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>goodmanSanAngelo, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights this weekend and I would have to say that I've stayed in hostels that are nicer. There were cigarette holes in the quilt, questionable white stains and you can't forget the blood splatter on the carpet. We also found a cockroach in the bathroom and the bath floods when you shower because the plug is faulty. The plus side was that the room was quite large, we had a king size bed. Breakfast is included but we weren't game enough to eat it after our room experience. It's 6-9am.Make sure you put the do not disturb on your door because housekeeping knocks on your door quite early. Actually they knocked twice before 9am.There was a tv and bar fridge in the room which was one of the redeeming qualities. But I can't get past the blood splatter etc. and have given 1 star due to this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r372639501-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>372639501</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Family reunion</t>
+  </si>
+  <si>
+    <t>I came from ourt of town for my family reunion and I swear this is the best super 8 I have ever stayed in! The rooms were so clean and the staff was so helpful and caring! Oh and the breakfast... It's just as amazing as the view of the lake from my room! MoreShow less</t>
+  </si>
+  <si>
+    <t>goodmanSanAngelo, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2016</t>
+  </si>
+  <si>
+    <t>I came from ourt of town for my family reunion and I swear this is the best super 8 I have ever stayed in! The rooms were so clean and the staff was so helpful and caring! Oh and the breakfast... It's just as amazing as the view of the lake from my room! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r358580158-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>358580158</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>This stay should have been FREE!!</t>
+  </si>
+  <si>
+    <t>Room 102: Door handle would only work if you lift it, p;hone was broken, no TV remote, fridge was on but wouldn't cool, microwave plate didn't spin, sink faucet leaked, and there was hair in the shower before I used it. She moved us to Room 108, where the hair dryer had been pulled from the wall and was missing, and the toilet ran all night. I should be refunded for this stay. I will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>goodmanSanAngelo, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Room 102: Door handle would only work if you lift it, p;hone was broken, no TV remote, fridge was on but wouldn't cool, microwave plate didn't spin, sink faucet leaked, and there was hair in the shower before I used it. She moved us to Room 108, where the hair dryer had been pulled from the wall and was missing, and the toilet ran all night. I should be refunded for this stay. I will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r346295353-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>346295353</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Great stay and treated like family</t>
+  </si>
+  <si>
+    <t>Great at this hotel as always.  Staff treat me decent and property is clean.  Breakfast is always great  always will recommend to stay at this hotel.   They always know me by name.   They always honor my requests.   Always prefer the first floor and they have my  preferences on file. Keep up the great work</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r339966070-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>339966070</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here !!!!!! Horrible !</t>
+  </si>
+  <si>
+    <t>My signifigant other and I stayed here New Years Eve weekend, I booked the room through Wyndam website as we always try to stay at Wyndam hotels for a romantic long weekend for the New Year.  The minute I got to the desk it started.  First they didn't have my reservation and I was informed on the site I booked that they had a smoking Jacuzzi tub room when I got there I was told no only non smoking and they didn't even have my reservation they would have to give me two queen beds.  She did move another customer with no preference so we could have the king but it didn't matter the room was awful it smelled bad the bed sheet were not even clean looking the comforter if you could call it that was so wrinkled and ugly 2 really bad pillows and BUGS in the bathroom.  We were sports about it and stayed the one night as we went out and didn't stay in much.  I told the lady at the desk that we would not be staying the two remaining nights and she said fine we wouldn't be charged but I was anyway and I called them they said it was Wyndams problem and Wyndam said it was them so I am all around disappointed especially since we ended up going to the Baymont on Conroe another Wyndam hotel and they still were that way....My signifigant other and I stayed here New Years Eve weekend, I booked the room through Wyndam website as we always try to stay at Wyndam hotels for a romantic long weekend for the New Year.  The minute I got to the desk it started.  First they didn't have my reservation and I was informed on the site I booked that they had a smoking Jacuzzi tub room when I got there I was told no only non smoking and they didn't even have my reservation they would have to give me two queen beds.  She did move another customer with no preference so we could have the king but it didn't matter the room was awful it smelled bad the bed sheet were not even clean looking the comforter if you could call it that was so wrinkled and ugly 2 really bad pillows and BUGS in the bathroom.  We were sports about it and stayed the one night as we went out and didn't stay in much.  I told the lady at the desk that we would not be staying the two remaining nights and she said fine we wouldn't be charged but I was anyway and I called them they said it was Wyndams problem and Wyndam said it was them so I am all around disappointed especially since we ended up going to the Baymont on Conroe another Wyndam hotel and they still were that way.  It is sure making me think twice before I make my next trip as to what company I want to give my hard earned money to.    Just saying please do not waste your money and stay here when there is Best Western close by that has to be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>goodmanSanAngelo, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>My signifigant other and I stayed here New Years Eve weekend, I booked the room through Wyndam website as we always try to stay at Wyndam hotels for a romantic long weekend for the New Year.  The minute I got to the desk it started.  First they didn't have my reservation and I was informed on the site I booked that they had a smoking Jacuzzi tub room when I got there I was told no only non smoking and they didn't even have my reservation they would have to give me two queen beds.  She did move another customer with no preference so we could have the king but it didn't matter the room was awful it smelled bad the bed sheet were not even clean looking the comforter if you could call it that was so wrinkled and ugly 2 really bad pillows and BUGS in the bathroom.  We were sports about it and stayed the one night as we went out and didn't stay in much.  I told the lady at the desk that we would not be staying the two remaining nights and she said fine we wouldn't be charged but I was anyway and I called them they said it was Wyndams problem and Wyndam said it was them so I am all around disappointed especially since we ended up going to the Baymont on Conroe another Wyndam hotel and they still were that way....My signifigant other and I stayed here New Years Eve weekend, I booked the room through Wyndam website as we always try to stay at Wyndam hotels for a romantic long weekend for the New Year.  The minute I got to the desk it started.  First they didn't have my reservation and I was informed on the site I booked that they had a smoking Jacuzzi tub room when I got there I was told no only non smoking and they didn't even have my reservation they would have to give me two queen beds.  She did move another customer with no preference so we could have the king but it didn't matter the room was awful it smelled bad the bed sheet were not even clean looking the comforter if you could call it that was so wrinkled and ugly 2 really bad pillows and BUGS in the bathroom.  We were sports about it and stayed the one night as we went out and didn't stay in much.  I told the lady at the desk that we would not be staying the two remaining nights and she said fine we wouldn't be charged but I was anyway and I called them they said it was Wyndams problem and Wyndam said it was them so I am all around disappointed especially since we ended up going to the Baymont on Conroe another Wyndam hotel and they still were that way.  It is sure making me think twice before I make my next trip as to what company I want to give my hard earned money to.    Just saying please do not waste your money and stay here when there is Best Western close by that has to be better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r272757304-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>272757304</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Don't Bother - Stay at the Best Western down the street</t>
+  </si>
+  <si>
+    <t>Staff was friendly but the room was terrible. Old carpet and I wouldn't sit in the chairs without putting towels on them because they were so stained and dirty. Breakfast was from 6 to 9. I shoed up at 7:50 and they were already out. When I asked, I was told they only put out a certain amount and when it's gone, it's gone. Checked out and got a refund for the additional nights from a very understanding and somewhat embarrassed front desk person. Went down the street to the Best Western. It was a night and day difference. I had booked the Super 8 because it was the only hotel in the immediate area that was in my Wyndham Rewards group. This is far below the standards of the Wyndham Reward group of hotels I've stayed in. I'll never make this mistake again. I'm done with Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Staff was friendly but the room was terrible. Old carpet and I wouldn't sit in the chairs without putting towels on them because they were so stained and dirty. Breakfast was from 6 to 9. I shoed up at 7:50 and they were already out. When I asked, I was told they only put out a certain amount and when it's gone, it's gone. Checked out and got a refund for the additional nights from a very understanding and somewhat embarrassed front desk person. Went down the street to the Best Western. It was a night and day difference. I had booked the Super 8 because it was the only hotel in the immediate area that was in my Wyndham Rewards group. This is far below the standards of the Wyndham Reward group of hotels I've stayed in. I'll never make this mistake again. I'm done with Super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r272046332-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>272046332</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Best Super 8</t>
+  </si>
+  <si>
+    <t>This is the best Super 8 we have stayed in. The rooms were very spacious. The decor was updated. Beds were soft. Wifi was good. Breakfast could have been a little better. The outside was very well kept and nice. Would stay here again. The price is a little high but not to bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r255307430-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>255307430</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r198326492-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>198326492</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>Nice and clean rooms, staff is good -helpful my internet was down but they help me.  And this super 8 motel is at a nice location. Great breakfast choice and tasted good too. Superb ... Stay i will stay here again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r196226539-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>196226539</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Fine for what it is</t>
+  </si>
+  <si>
+    <t>I was really scared when I got this place on Priceline, but my fears were totally unwarranted.  The only issue I had with the place was that my key cards got inadvertently deactivated twice, but I went to the office and they took care of me quick.  It's not the Hilton, do don't expect a Hilton, but for a Super 8 its actually really clean and comfortable.  I don't know if I just had a good room, but I would not hesitate to stay here again.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r184541685-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>184541685</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>NO HEAT</t>
+  </si>
+  <si>
+    <t>I stay in motels all across tx and la three to four nights a week and even though the girl that checked me in was very pleasant after the weather started to get cold I noticed the heater was not working. Iwent to the front desk and a older man was standing there watching tv. I told him about the problem I was having with the heat and his response was that he would have maintenance look at it the next day. HELLO Ill be gone by then. I asked for another room which I passed 2 or 3 empty rooms on the way up. He said I would have to pay more money.  Any other place would put me in a warm room.Not this JERK. So Im keeping the hair blow dryer running to get the room comfortable. If I could give a ZERO rating I would.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stay in motels all across tx and la three to four nights a week and even though the girl that checked me in was very pleasant after the weather started to get cold I noticed the heater was not working. Iwent to the front desk and a older man was standing there watching tv. I told him about the problem I was having with the heat and his response was that he would have maintenance look at it the next day. HELLO Ill be gone by then. I asked for another room which I passed 2 or 3 empty rooms on the way up. He said I would have to pay more money.  Any other place would put me in a warm room.Not this JERK. So Im keeping the hair blow dryer running to get the room comfortable. If I could give a ZERO rating I would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r151976094-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>151976094</t>
+  </si>
+  <si>
+    <t>02/12/2013</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>We usually stay at Super 8 since we participate in the Wyndham Rewards program. However, this was absolutely the worst Super 8 we have ever stayed at, and the worst hotel/motel we have ever stayed at. They advertise "free wi-fi", but that doesn't mean in your room. That means in the very small lobby/t.v. area!!!! We reported this issue numerous times. Loud partying during the night...had to call the front desk several times to report it because they wouldn't answer the phone! Trash cans were overflowing with trash as employees would walk by them. Swimming pool had trash either thrown or blown it...BIG eye sore! Breakfast was ridiculous...it's as though they were planning for a handful of customers to eat!!! Rang bell to check out, but had to wait 5 minutes for girl to come out of office to assist me. She looked like she had been sleeping!! Trust me, price was right, but we definitely will go somewhere else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We usually stay at Super 8 since we participate in the Wyndham Rewards program. However, this was absolutely the worst Super 8 we have ever stayed at, and the worst hotel/motel we have ever stayed at. They advertise "free wi-fi", but that doesn't mean in your room. That means in the very small lobby/t.v. area!!!! We reported this issue numerous times. Loud partying during the night...had to call the front desk several times to report it because they wouldn't answer the phone! Trash cans were overflowing with trash as employees would walk by them. Swimming pool had trash either thrown or blown it...BIG eye sore! Breakfast was ridiculous...it's as though they were planning for a handful of customers to eat!!! Rang bell to check out, but had to wait 5 minutes for girl to come out of office to assist me. She looked like she had been sleeping!! Trust me, price was right, but we definitely will go somewhere else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r135190363-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>135190363</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>use our website for reseveations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booked a two night stay thur cheaphotels.com found out after checking out that rooms were less than what we had reserved.  Call/search around for cheaper price why pay more for an average room.  We were charged $137 for two nights when we checked out the invoice state $100 was charged more for using cheaphotels.com.  </t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r130888790-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>130888790</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>AWFUL</t>
+  </si>
+  <si>
+    <t>After booking 4 rooms, 3 rooms had issues, the worst being, the door barely opened, the toilet didn't flush and the water in the bathroom only had one temperature....SCALDING HOT, our 6 month pregnant daughter and her husband had this room, and the front desk wouldn;t do a darn thing about it...said we should have complained earlier, we'll honey, we didn;t know it til midnight and we left the next morning...tried to get a refund on that room, said to call the owner, he never answered, called corporate to fill out a complaint...waiting to hear from them.  I would never stay here again, they were very rude and had no compassion what so ever... even though they acknowledged that the room had issues, Never ever again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>After booking 4 rooms, 3 rooms had issues, the worst being, the door barely opened, the toilet didn't flush and the water in the bathroom only had one temperature....SCALDING HOT, our 6 month pregnant daughter and her husband had this room, and the front desk wouldn;t do a darn thing about it...said we should have complained earlier, we'll honey, we didn;t know it til midnight and we left the next morning...tried to get a refund on that room, said to call the owner, he never answered, called corporate to fill out a complaint...waiting to hear from them.  I would never stay here again, they were very rude and had no compassion what so ever... even though they acknowledged that the room had issues, Never ever again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r119617209-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>119617209</t>
+  </si>
+  <si>
+    <t>10/23/2011</t>
+  </si>
+  <si>
+    <t>Tired but marginally acceptible, clean but needs help</t>
+  </si>
+  <si>
+    <t>I have stayed at this Super 8 at least six or seven times as my HQ for good times at the Texas Renaissance Festival. The fact that I continue to stay here in spite of a few misgivings about this property...well I guess that means I think it is "OK"
+But it is only "OK".
+The pool is poorly maintained, this weekend it was 85 degrees on Friday afternoon but the pool was filthy and looked like it hadn't been cleaned in a while. They shut down the pool at 9pm when it is open, but I don't think I have ever seen that pool in clean, swimmable condition.
+The rooms themselves are basic: they do have microwaves and refrigerators, but I have had problems with the refrigerators either freezing over or not being cold enough. The furnishings are "OK" and the bed is comfortable enough but nothing outstanding. I will say I think they keep the rooms reasonably clean.
+A major beef is that all of the second floor rooms are only accessible by stairs, and the two sets of stairs are not very convenient to either the rooms or the parking lot. It can be a long haul from car to room.
+The "continental breakfast" is relatively meager. Low end quality fruit and microwave burritos are the basic fare.
+Another "plus" however, is that this property is close to great places to eat dinner (County Line BBQ, Five...I have stayed at this Super 8 at least six or seven times as my HQ for good times at the Texas Renaissance Festival. The fact that I continue to stay here in spite of a few misgivings about this property...well I guess that means I think it is "OK"But it is only "OK".The pool is poorly maintained, this weekend it was 85 degrees on Friday afternoon but the pool was filthy and looked like it hadn't been cleaned in a while. They shut down the pool at 9pm when it is open, but I don't think I have ever seen that pool in clean, swimmable condition.The rooms themselves are basic: they do have microwaves and refrigerators, but I have had problems with the refrigerators either freezing over or not being cold enough. The furnishings are "OK" and the bed is comfortable enough but nothing outstanding. I will say I think they keep the rooms reasonably clean.A major beef is that all of the second floor rooms are only accessible by stairs, and the two sets of stairs are not very convenient to either the rooms or the parking lot. It can be a long haul from car to room.The "continental breakfast" is relatively meager. Low end quality fruit and microwave burritos are the basic fare.Another "plus" however, is that this property is close to great places to eat dinner (County Line BBQ, Five Guys Burgers, Sam's Boat) and there is a CVS Pharmacy across the highway that is convenient and comes in handy for small emergencies (forgot the toothpaste?)Overall: two stars. I will stay here again, and I will most likely be slightly disappointed with the low end "bang for my buck" at this place. I don't spend a lot of time in the room here, but it is handy to know about and relatively close to where I am going when I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I have stayed at this Super 8 at least six or seven times as my HQ for good times at the Texas Renaissance Festival. The fact that I continue to stay here in spite of a few misgivings about this property...well I guess that means I think it is "OK"
+But it is only "OK".
+The pool is poorly maintained, this weekend it was 85 degrees on Friday afternoon but the pool was filthy and looked like it hadn't been cleaned in a while. They shut down the pool at 9pm when it is open, but I don't think I have ever seen that pool in clean, swimmable condition.
+The rooms themselves are basic: they do have microwaves and refrigerators, but I have had problems with the refrigerators either freezing over or not being cold enough. The furnishings are "OK" and the bed is comfortable enough but nothing outstanding. I will say I think they keep the rooms reasonably clean.
+A major beef is that all of the second floor rooms are only accessible by stairs, and the two sets of stairs are not very convenient to either the rooms or the parking lot. It can be a long haul from car to room.
+The "continental breakfast" is relatively meager. Low end quality fruit and microwave burritos are the basic fare.
+Another "plus" however, is that this property is close to great places to eat dinner (County Line BBQ, Five...I have stayed at this Super 8 at least six or seven times as my HQ for good times at the Texas Renaissance Festival. The fact that I continue to stay here in spite of a few misgivings about this property...well I guess that means I think it is "OK"But it is only "OK".The pool is poorly maintained, this weekend it was 85 degrees on Friday afternoon but the pool was filthy and looked like it hadn't been cleaned in a while. They shut down the pool at 9pm when it is open, but I don't think I have ever seen that pool in clean, swimmable condition.The rooms themselves are basic: they do have microwaves and refrigerators, but I have had problems with the refrigerators either freezing over or not being cold enough. The furnishings are "OK" and the bed is comfortable enough but nothing outstanding. I will say I think they keep the rooms reasonably clean.A major beef is that all of the second floor rooms are only accessible by stairs, and the two sets of stairs are not very convenient to either the rooms or the parking lot. It can be a long haul from car to room.The "continental breakfast" is relatively meager. Low end quality fruit and microwave burritos are the basic fare.Another "plus" however, is that this property is close to great places to eat dinner (County Line BBQ, Five Guys Burgers, Sam's Boat) and there is a CVS Pharmacy across the highway that is convenient and comes in handy for small emergencies (forgot the toothpaste?)Overall: two stars. I will stay here again, and I will most likely be slightly disappointed with the low end "bang for my buck" at this place. I don't spend a lot of time in the room here, but it is handy to know about and relatively close to where I am going when I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r117638432-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>117638432</t>
+  </si>
+  <si>
+    <t>09/03/2011</t>
+  </si>
+  <si>
+    <t>Unacceptable conditions and behavior!</t>
+  </si>
+  <si>
+    <t>When I read the not so good review of this hotel, I was quick to write them off as an upset customer on a rampage. However, on a recent trip to a family wedding, we stayed at the Super 8 in Montgomery/Conroe Texas. For starters, the pictures on the website are NOTHING like what the hotel really is. The pool is about the size of a hot tub, and not clean. There was still some trash left from the prior tenants, there was gunk and dust on the surfaces that could be scrapped off. The bathroom was absolutly gross, and the dirt on the back of the door got the towels dirty when I hung them on the hook!! The floors are not fully clean and there are spider webs hanging from the ceiling. Then to make matters worse, when I went to mention it to the staff, I was basically called a liar. I even gave her the trash left behind and she still wanted to argue with me! Needless to say, my family, or anyone I know, will NEVER be staying at a Super 8 hotel. Ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>When I read the not so good review of this hotel, I was quick to write them off as an upset customer on a rampage. However, on a recent trip to a family wedding, we stayed at the Super 8 in Montgomery/Conroe Texas. For starters, the pictures on the website are NOTHING like what the hotel really is. The pool is about the size of a hot tub, and not clean. There was still some trash left from the prior tenants, there was gunk and dust on the surfaces that could be scrapped off. The bathroom was absolutly gross, and the dirt on the back of the door got the towels dirty when I hung them on the hook!! The floors are not fully clean and there are spider webs hanging from the ceiling. Then to make matters worse, when I went to mention it to the staff, I was basically called a liar. I even gave her the trash left behind and she still wanted to argue with me! Needless to say, my family, or anyone I know, will NEVER be staying at a Super 8 hotel. Ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r117558726-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>117558726</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>Good Area; Clean rooms; Helpful Staff</t>
+  </si>
+  <si>
+    <t>Pulled in late with trailer...staff was very helpful about parking with the trailer. Room was clean but A/C was really struggling to keep the room cool. It was hot (109) outside!! Great price for accomodations!!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r19747855-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>19747855</t>
+  </si>
+  <si>
+    <t>09/04/2008</t>
+  </si>
+  <si>
+    <t>good experience</t>
+  </si>
+  <si>
+    <t>While running from Hurricane, found this hotel to be clean, rooms were nice, but best of all the staff were very friendly and helpful. Thanks for the hospitality.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r3791872-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>3791872</t>
+  </si>
+  <si>
+    <t>08/19/2005</t>
+  </si>
+  <si>
+    <t>A very Comfortable motel</t>
+  </si>
+  <si>
+    <t>This is a very comfortable hotel , nice very clean and great rates. Probably the best hotel in the area.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1429,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1461,2712 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>119</v>
+      </c>
+      <c r="X13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>119</v>
+      </c>
+      <c r="X14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>160</v>
+      </c>
+      <c r="X22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>160</v>
+      </c>
+      <c r="X23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>224</v>
+      </c>
+      <c r="X25" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>247</v>
+      </c>
+      <c r="X28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>277</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>297</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s">
+        <v>302</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39" t="s">
+        <v>314</v>
+      </c>
+      <c r="K39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s">
+        <v>316</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>317</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J42" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" t="s">
+        <v>334</v>
+      </c>
+      <c r="L42" t="s">
+        <v>335</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_639.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_639.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r615142531-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>56311</t>
+  </si>
+  <si>
+    <t>555269</t>
+  </si>
+  <si>
+    <t>615142531</t>
+  </si>
+  <si>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>Super 8 stay</t>
+  </si>
+  <si>
+    <t>They have a very nice staff. They were Helpful and had good knowledge of the area. A quiet area with great view of the lake! They also had a really good breakfast selection! We definitely will be staying again!</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r580692211-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>580692211</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Good stay!</t>
+  </si>
+  <si>
+    <t>Front desk clerk was very accommodating and helpful. We are both handicapped for walking. He was going to let us park close to the office because he thought the handicapped parking was full. It turned out that it was actually open and we we able to park close to the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Front desk clerk was very accommodating and helpful. We are both handicapped for walking. He was going to let us park close to the office because he thought the handicapped parking was full. It turned out that it was actually open and we we able to park close to the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r614867888-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>614867888</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>This a good place to stay especially if u just need a place for the night u can come in as a walk in and get a room at a great price great room sizes too the staff was good the room stayed super cold all night...I will definitely stay here next time I'm back down this way</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r612710936-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>612710936</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Double charged and the toilet didn't work</t>
+  </si>
+  <si>
+    <t>After checking in and paying, the front desk called and asked me to come back up because my card didn't show up in their system. Even though I was hurrying to get dressed for an event, I went back in and let them run my card a second time. Now the charge is on my account twice and they tell me to take it up with my bank.What a hassle to have to deal with, not to mention that the toilet never would flush, even though I took the tank lid off. Poor management.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>After checking in and paying, the front desk called and asked me to come back up because my card didn't show up in their system. Even though I was hurrying to get dressed for an event, I went back in and let them run my card a second time. Now the charge is on my account twice and they tell me to take it up with my bank.What a hassle to have to deal with, not to mention that the toilet never would flush, even though I took the tank lid off. Poor management.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r595929859-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>595929859</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and friendly, good management I would recommend people to stay there! It’s close to the lake to enjoy, great area to be in..  Clean place, restaurants near by... Close to where you can go fishing! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r593654375-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
-    <t>56311</t>
-  </si>
-  <si>
-    <t>555269</t>
-  </si>
-  <si>
     <t>593654375</t>
   </si>
   <si>
@@ -174,9 +288,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>goodmanSanAngelo, Front Office Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded July 8, 2018</t>
   </si>
   <si>
@@ -219,7 +330,58 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r566680605-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>566680605</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Working vacation</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. Friendly staff. Good location. Very nice and comfy rooms I stay there every time I work in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. Friendly staff. Good location. Very nice and comfy rooms I stay there every time I work in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r561263895-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>561263895</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Perfect Valentine Day</t>
+  </si>
+  <si>
+    <t>We rented a jacuzzi room, It was nice and cozy. A quiet place to get away with very friendly and helpful staff. Great view of Lake Conroe and close to restaurants and shopping. Will definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>We rented a jacuzzi room, It was nice and cozy. A quiet place to get away with very friendly and helpful staff. Great view of Lake Conroe and close to restaurants and shopping. Will definitely stay again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r560880695-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
@@ -243,12 +405,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded February 22, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 22, 2018</t>
-  </si>
-  <si>
     <t>I rented a room for some guests staying over Christmas this year.  I could not believe the condition of the room.  I honestly tried to look for something positive to say but there is nothing about the room that is.  The room we had (110) is very dated, old, stale and musty.  The carpet, bedspread and bathroom all looked unclean and to be honest unhygienic.  The only positive i will give it is the person at the front desk was very friendly and nice.I would never rent a room at this hotel again unless it was made known they had undergone a total refurbishment.More</t>
   </si>
   <si>
@@ -267,9 +423,6 @@
     <t>No breakfast. Even though hotel was affected by hurricane I still feel that staff should have provided cereal or packaged muffins or something. At check in the desk clerk did not know how to add my Wyndam number. The bed was mediocreMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>racheal d, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded January 24, 2018</t>
   </si>
   <si>
@@ -303,6 +456,42 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r532644295-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>532644295</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>I had a good experience, the staff was very diligent when I ask for room facilities. the breakfast was good. If you love the lake as I do you will like this place, it has a nice view of lake Conroe not to mention how close is from shopping and dinning places.Thanks a Lot!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>racheal d, General Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>I had a good experience, the staff was very diligent when I ask for room facilities. the breakfast was good. If you love the lake as I do you will like this place, it has a nice view of lake Conroe not to mention how close is from shopping and dinning places.Thanks a Lot!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r532087598-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>532087598</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r524425452-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -321,15 +510,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>racheal d, General Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded October 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 18, 2017</t>
-  </si>
-  <si>
     <t>I had one towel in my room, women need two towels. The bathroom was not cleaned very well, but I survived! Also doesn't lake front mean I should see a lake in front of my room. Didn't matter it was pouring and tornado warnings. I was happy to have a room. But really, I need two towels! The lady at the desk was very nice, she helped me when I was freakin about the tornado warning. More</t>
   </si>
   <si>
@@ -384,6 +564,45 @@
     <t>The outside of the hotel is kind of nice, and they have little finger foods and coffee by the front desk. Everything else - aweful. Our room was disgusting, there were what looked like blood stains on the carpet, and the shower was dirty. The pool looked so dirty that you couldnt even see where the steps to get in it were. The receptionist was very unprofessional, she seemed like she did not want to be there, and she couldn't find our reservation until the second time we went to check-in. I would not recommend this hotel to anybody.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r507077560-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>507077560</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Lots gone wrong!</t>
+  </si>
+  <si>
+    <t>This hotel appears nice from the outside but.... it is out dated and our room was dark and musty/stinky. The first problem was the door had to body slammed to open after inserting the card. The chair's arm was broken. No towels. Called to ask for towels and they brought 2 towels for 3 of us. There were 3 (yes 3!) light bulbs out. I could understand if 1 went out but not 3. The toilet didn't flush every time it was flushed. You had to wait quite a while. The sheets were old and worn. I didn't personally go to breakfast but my husband said it was horrible, so my daughter and I went to the Shipley's across the street. Avoid this hotel! It was so overpriced and so not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel appears nice from the outside but.... it is out dated and our room was dark and musty/stinky. The first problem was the door had to body slammed to open after inserting the card. The chair's arm was broken. No towels. Called to ask for towels and they brought 2 towels for 3 of us. There were 3 (yes 3!) light bulbs out. I could understand if 1 went out but not 3. The toilet didn't flush every time it was flushed. You had to wait quite a while. The sheets were old and worn. I didn't personally go to breakfast but my husband said it was horrible, so my daughter and I went to the Shipley's across the street. Avoid this hotel! It was so overpriced and so not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r486450977-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>486450977</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>wonderful place to stay with your family</t>
+  </si>
+  <si>
+    <t>The rooms were very clean. Management and staff were more than accommodating, great breakfast every morning, and right across the street is the marina. So much fun stuff for the family. My family and I just loved it. Will definitely be back on our next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>The rooms were very clean. Management and staff were more than accommodating, great breakfast every morning, and right across the street is the marina. So much fun stuff for the family. My family and I just loved it. Will definitely be back on our next trip.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r486139901-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -399,9 +618,6 @@
     <t>Property is in disrepair dangerous stairway warped boards . Outdated and overall not any better than the motel 6 down the road  was a quiet stay though in the future we wont stay here housekeeping tried to get us out of the room before checkout timeMoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Property is in disrepair dangerous stairway warped boards . Outdated and overall not any better than the motel 6 down the road  was a quiet stay though in the future we wont stay here housekeeping tried to get us out of the room before checkout timeMore</t>
   </si>
   <si>
@@ -441,6 +657,36 @@
     <t>When we checked in the room we were give was not made up.  The second room was the same.The attendant was not dressed appropriately.  The pool was green and nasty looking.  The breakfast was the worst hot breakfast we have ever had.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r482938706-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>482938706</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r482433235-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>482433235</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>SUPER for a Super 8 !</t>
+  </si>
+  <si>
+    <t>One night stay passing thru but wanted to be near the lake (for some close evening entertainment) , and wanted somewhere safe in a nice area but not too expensive. Very nice quality of room &amp; clean. Also a nice little breakfast in lobby included b4 we left ! Staff were good too. We will be back and choose THIS PLACE again !MoreShow less</t>
+  </si>
+  <si>
+    <t>One night stay passing thru but wanted to be near the lake (for some close evening entertainment) , and wanted somewhere safe in a nice area but not too expensive. Very nice quality of room &amp; clean. Also a nice little breakfast in lobby included b4 we left ! Staff were good too. We will be back and choose THIS PLACE again !More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r481066303-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -507,6 +753,45 @@
     <t>Checked in great Services, easy to talk to and welcomed with a smile. Had no problems with the rooms, nice and quite, perfect for me to relax without worry. Had a bit of trouble with lighting and someone came to help immediately. Would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r436232174-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>436232174</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t>Stayed here with my sister while we were visiting our Niece near by.  The room smelled funny and we had a hard time getting the staff to restock towels, coffee and shampoo the entire 4 nights we were there.  The blanket on my bed was dirty and I had to leave a note for the housekeeper to give me a clean one.  I travel a lot for work and this was one of the worst places that I have stayed.  The stairs have bad spots that are trip hazards.  Breakfast was very minimal. Spend a little more and go the nicer Best Western a bock or 2 east on Highway 105.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here with my sister while we were visiting our Niece near by.  The room smelled funny and we had a hard time getting the staff to restock towels, coffee and shampoo the entire 4 nights we were there.  The blanket on my bed was dirty and I had to leave a note for the housekeeper to give me a clean one.  I travel a lot for work and this was one of the worst places that I have stayed.  The stairs have bad spots that are trip hazards.  Breakfast was very minimal. Spend a little more and go the nicer Best Western a bock or 2 east on Highway 105.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r414385355-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>414385355</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Belle</t>
+  </si>
+  <si>
+    <t>Super 8 was very clean with a friendly staff. Tried everything they could to accommodate my family and I in our time of need. Thanks Super 8... Come and enjoy the sun by the pool... Or just a place to relax after a long day on the lake... sleep is G8 at the 8MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Super 8 was very clean with a friendly staff. Tried everything they could to accommodate my family and I in our time of need. Thanks Super 8... Come and enjoy the sun by the pool... Or just a place to relax after a long day on the lake... sleep is G8 at the 8More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r413706853-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -522,9 +807,6 @@
     <t>This super 8 is a good hotel there's clean rooms and friendly service there's also a pool, washers and dryers next time your looking to book come to super 8 on 105 there's usually always vacancys so give them a try you will enjoy your visit MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>This super 8 is a good hotel there's clean rooms and friendly service there's also a pool, washers and dryers next time your looking to book come to super 8 on 105 there's usually always vacancys so give them a try you will enjoy your visit More</t>
   </si>
   <si>
@@ -570,6 +852,39 @@
     <t>Stay here for one night. The room was very clean. The WiFi was good. The price was reasonable. Bathrooms are clean and roomy! Good place  to stay located by few restaurant. I will stay here again definitely.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r390459189-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>390459189</t>
+  </si>
+  <si>
+    <t>SUPER 8 IS SUPER GREAT</t>
+  </si>
+  <si>
+    <t>pool was just cleaned when I arrived so the swimming experience was awesome. managers and employees did everything they could to make sure we were enjoying our stay comfortably. breakfast was delicious and check in was smooth as was checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>pool was just cleaned when I arrived so the swimming experience was awesome. managers and employees did everything they could to make sure we were enjoying our stay comfortably. breakfast was delicious and check in was smooth as was checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r389234167-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>389234167</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Stay far away</t>
+  </si>
+  <si>
+    <t>I tried to cancel my reservation 48 hours before my stay, because I found a better rated (trip advisor) hotel nearby. I was not allowed to get my money back, not just for the first night, but for the whole stay. (Apparently this is a super 8 policy) So I checked in, and while in the lobby, saw a couple whose paid for room was sold to another party. They were very upset, and the hotel had overbooked several rooms. Super 8 also tried to sell my room to another party, since I had mentioned a cancellation, they wanted to keep my money and double charge. The room was filthy, and there were roaches running from the bathroom up the door hiding in the hinges of that door. I decided it was best to consider it a loss, stay healthy and happy, and checked in to the Best Western .4 miles up the road which is wonderful.These people are greedy, desperate, and do not care about their clients at all. The girl at the front desk was sweet, was saddled with the problems, and probably won't last. The housekeeping staff is still cleaning rooms at 6:00 pm. The pool is green with algae. The ownership is absent, and the poor staff is dealing with the repercussions of their greedy indifferent choices. Stay far awayMoreShow less</t>
+  </si>
+  <si>
+    <t>I tried to cancel my reservation 48 hours before my stay, because I found a better rated (trip advisor) hotel nearby. I was not allowed to get my money back, not just for the first night, but for the whole stay. (Apparently this is a super 8 policy) So I checked in, and while in the lobby, saw a couple whose paid for room was sold to another party. They were very upset, and the hotel had overbooked several rooms. Super 8 also tried to sell my room to another party, since I had mentioned a cancellation, they wanted to keep my money and double charge. The room was filthy, and there were roaches running from the bathroom up the door hiding in the hinges of that door. I decided it was best to consider it a loss, stay healthy and happy, and checked in to the Best Western .4 miles up the road which is wonderful.These people are greedy, desperate, and do not care about their clients at all. The girl at the front desk was sweet, was saddled with the problems, and probably won't last. The housekeeping staff is still cleaning rooms at 6:00 pm. The pool is green with algae. The ownership is absent, and the poor staff is dealing with the repercussions of their greedy indifferent choices. Stay far awayMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r388831853-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -630,6 +945,30 @@
     <t>The lady working the late shift will talk to you like you are a child if you ask for extra towels. She will say things like "that's too many towels for one person" with a look on her face that exudes the look of disgust. And it will take you literally 20 minutes to argue with her about how you are paying $75 a night and towels are an amenity that is included in the room. Then she will accuse you and say "people that ask for 4 extra towels on the same day they check in usually are the ones that end up stealing them from the hotel". The audacity this woman had to drag out the argument for 20 minutes just because she had some personal issues against giving out towels absolutely amazed me. She did finally give them to me only after my husband had worried why I was gone so long and had to come to the lobby to check on me. Also there is fuzzy mold growing on the edges of the carpet closest to the walls. Also it smells like a Tom cat came in the rooms and sprayed that awful ammonia cat smell that you just can't get rid of. And to top it all off... A homeless man living in the stairwell around the corner from our room got ahold of a master key off of a housekeeping cart and got into...The lady working the late shift will talk to you like you are a child if you ask for extra towels. She will say things like "that's too many towels for one person" with a look on her face that exudes the look of disgust. And it will take you literally 20 minutes to argue with her about how you are paying $75 a night and towels are an amenity that is included in the room. Then she will accuse you and say "people that ask for 4 extra towels on the same day they check in usually are the ones that end up stealing them from the hotel". The audacity this woman had to drag out the argument for 20 minutes just because she had some personal issues against giving out towels absolutely amazed me. She did finally give them to me only after my husband had worried why I was gone so long and had to come to the lobby to check on me. Also there is fuzzy mold growing on the edges of the carpet closest to the walls. Also it smells like a Tom cat came in the rooms and sprayed that awful ammonia cat smell that you just can't get rid of. And to top it all off... A homeless man living in the stairwell around the corner from our room got ahold of a master key off of a housekeeping cart and got into outlet room and stole clothes and a lot of medication including my friends insulin and needles... So it was a nightmare to stay there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r378868000-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>378868000</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>It's Okay</t>
+  </si>
+  <si>
+    <t>My boyfriend and I went to Montgomery for a friend's wedding and we figured that we'd keep it cheap since we were spending two nights out there. Well, the room we got was a good size and everything. What was unpleasant was that we asked for a nonsmoking room and after we checked in, went to our room, we were overwhelmed with the smell of cigarettes. Secondly, used toilet paper roll was still on the roll from the previous guest. Moreover, other guests spending the night at the hotel would drink and have their own party at the pool and it would go on late into the night and there's no noise control. I know it's you get what you pay for, but this was just a crappy experience all together. Spend your money at La Quinta or somewhere else. I don't recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I went to Montgomery for a friend's wedding and we figured that we'd keep it cheap since we were spending two nights out there. Well, the room we got was a good size and everything. What was unpleasant was that we asked for a nonsmoking room and after we checked in, went to our room, we were overwhelmed with the smell of cigarettes. Secondly, used toilet paper roll was still on the roll from the previous guest. Moreover, other guests spending the night at the hotel would drink and have their own party at the pool and it would go on late into the night and there's no noise control. I know it's you get what you pay for, but this was just a crappy experience all together. Spend your money at La Quinta or somewhere else. I don't recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r378810934-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>378810934</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r374688195-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -699,6 +1038,51 @@
     <t>I came from ourt of town for my family reunion and I swear this is the best super 8 I have ever stayed in! The rooms were so clean and the staff was so helpful and caring! Oh and the breakfast... It's just as amazing as the view of the lake from my room! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r363174737-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>363174737</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>A great stay at super 8!</t>
+  </si>
+  <si>
+    <t>I was super happy with how clean the room was and how close the hotel was to the water and food! The staff was super friendly and helpful! I was able to check in very quickly and relax in a clean comfy bed after being with the family all day. I will most defiantly be coming back soon and I will recommend this hotel to all of my friends and family! MoreShow less</t>
+  </si>
+  <si>
+    <t>I was super happy with how clean the room was and how close the hotel was to the water and food! The staff was super friendly and helpful! I was able to check in very quickly and relax in a clean comfy bed after being with the family all day. I will most defiantly be coming back soon and I will recommend this hotel to all of my friends and family! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r361043858-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>361043858</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Great office people. Bad Mgmt/Bed bugs</t>
+  </si>
+  <si>
+    <t>Third time staying here in 9 months and each time the people are great but there are bed bugs. Found one on my bed in the evening after the make ready. At each of my stays I've heard about there being bed bugs but this time it was my room. They offered us a different room but it had one bed which we declined because for two working men having one sleeping on the floor wasn't an option. The manager wouldnt comp that night because they offered us another room. Great staff but rude management/owner. Only ten dollars cheaper than the other hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>goodmanSanAngelo, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Third time staying here in 9 months and each time the people are great but there are bed bugs. Found one on my bed in the evening after the make ready. At each of my stays I've heard about there being bed bugs but this time it was my room. They offered us a different room but it had one bed which we declined because for two working men having one sleeping on the floor wasn't an option. The manager wouldnt comp that night because they offered us another room. Great staff but rude management/owner. Only ten dollars cheaper than the other hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r358580158-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -714,9 +1098,6 @@
     <t>Room 102: Door handle would only work if you lift it, p;hone was broken, no TV remote, fridge was on but wouldn't cool, microwave plate didn't spin, sink faucet leaked, and there was hair in the shower before I used it. She moved us to Room 108, where the hair dryer had been pulled from the wall and was missing, and the toilet ran all night. I should be refunded for this stay. I will never stay there again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>goodmanSanAngelo, Manager at Super 8 by Wyndham Montgomery/ Lake Conroe, responded to this reviewResponded April 6, 2016</t>
   </si>
   <si>
@@ -768,6 +1149,42 @@
     <t>My signifigant other and I stayed here New Years Eve weekend, I booked the room through Wyndam website as we always try to stay at Wyndam hotels for a romantic long weekend for the New Year.  The minute I got to the desk it started.  First they didn't have my reservation and I was informed on the site I booked that they had a smoking Jacuzzi tub room when I got there I was told no only non smoking and they didn't even have my reservation they would have to give me two queen beds.  She did move another customer with no preference so we could have the king but it didn't matter the room was awful it smelled bad the bed sheet were not even clean looking the comforter if you could call it that was so wrinkled and ugly 2 really bad pillows and BUGS in the bathroom.  We were sports about it and stayed the one night as we went out and didn't stay in much.  I told the lady at the desk that we would not be staying the two remaining nights and she said fine we wouldn't be charged but I was anyway and I called them they said it was Wyndams problem and Wyndam said it was them so I am all around disappointed especially since we ended up going to the Baymont on Conroe another Wyndam hotel and they still were that way....My signifigant other and I stayed here New Years Eve weekend, I booked the room through Wyndam website as we always try to stay at Wyndam hotels for a romantic long weekend for the New Year.  The minute I got to the desk it started.  First they didn't have my reservation and I was informed on the site I booked that they had a smoking Jacuzzi tub room when I got there I was told no only non smoking and they didn't even have my reservation they would have to give me two queen beds.  She did move another customer with no preference so we could have the king but it didn't matter the room was awful it smelled bad the bed sheet were not even clean looking the comforter if you could call it that was so wrinkled and ugly 2 really bad pillows and BUGS in the bathroom.  We were sports about it and stayed the one night as we went out and didn't stay in much.  I told the lady at the desk that we would not be staying the two remaining nights and she said fine we wouldn't be charged but I was anyway and I called them they said it was Wyndams problem and Wyndam said it was them so I am all around disappointed especially since we ended up going to the Baymont on Conroe another Wyndam hotel and they still were that way.  It is sure making me think twice before I make my next trip as to what company I want to give my hard earned money to.    Just saying please do not waste your money and stay here when there is Best Western close by that has to be better.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r327283083-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>327283083</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Waste of Money- stay at Best Western instead</t>
+  </si>
+  <si>
+    <t>What a waste of time and money- $110/night on Travelocity.com, Room had a funk that took leaving the room door open for 20min to clear out, Remote to tv, didnt work, wasn't even the correct one.  (btw,found the correct one under the bed- housekeeping anyone?)bugs in the tub.Breakfast- what a joke- free breakfast- cereal, frozen cinnamon rolls, eggo-eqse waffle- toaster didnt work,  sausage and gravy- hard, bland tasting fire alarm went off randomly at night- we will never stay there again, I would rather sleep in my car. Should have stayed at Best Western down the street. Wasted $238.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r314363219-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>314363219</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Mid- Week Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed a couple times at this location. It is a great location, the staff is friendly, polite and knowledgeable, and we feel safe ( which is important with two younger children).  </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r272757304-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -816,6 +1233,39 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r237040336-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>237040336</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r227684092-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>227684092</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>WRONG PRICE!!!</t>
+  </si>
+  <si>
+    <t>Quoted one price by owner, and charged another at check in. Discussed with the woman checking me in. Understandably she could not change the price, but told me to talk to owners (she also told me what time they would be working). So I did. I was in the process of leaving so I was told to fax my information in and a refund would be given. NO REFUND EVER!! I've faxed twice, and called numerous times.I will never stay here again. While the staff was very nice, and the breakfast was good. The unprofessional attitude of the owners is ridiculous. I will never stay here and give them my money again.  (and I have a relatives who live within miles..so i'm here very often)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Quoted one price by owner, and charged another at check in. Discussed with the woman checking me in. Understandably she could not change the price, but told me to talk to owners (she also told me what time they would be working). So I did. I was in the process of leaving so I was told to fax my information in and a refund would be given. NO REFUND EVER!! I've faxed twice, and called numerous times.I will never stay here again. While the staff was very nice, and the breakfast was good. The unprofessional attitude of the owners is ridiculous. I will never stay here and give them my money again.  (and I have a relatives who live within miles..so i'm here very often)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r198326492-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1323,42 @@
     <t>I stay in motels all across tx and la three to four nights a week and even though the girl that checked me in was very pleasant after the weather started to get cold I noticed the heater was not working. Iwent to the front desk and a older man was standing there watching tv. I told him about the problem I was having with the heat and his response was that he would have maintenance look at it the next day. HELLO Ill be gone by then. I asked for another room which I passed 2 or 3 empty rooms on the way up. He said I would have to pay more money.  Any other place would put me in a warm room.Not this JERK. So Im keeping the hair blow dryer running to get the room comfortable. If I could give a ZERO rating I would.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r184309738-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>184309738</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Nasty - not worth the savings!</t>
+  </si>
+  <si>
+    <t>Non-smoking room was clearly worse than a roomful of messy ashtrays. The curtain, bedspread &amp; carpet stunk so badly I couldn't stand it. I asked for another room and was told there were none available. I endured it b/c I had to. Never again at any rate!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r167677175-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>167677175</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>This motel is a nightmare</t>
+  </si>
+  <si>
+    <t>This motel was a nightmare.  The rooms are old and the carpet very dirty.  We stayed in one of the bigger rooms and moved a chair and there was chips and candy under the chair, so the motel does not do a very good cleaning.  They had to pick up the towels every day as they did not have enough to towels to supply every rooms.  You could be short towels every day.  We had one towel and one washcloth for 2 people on one day.  No hand towels at all.  This motel does not have a resturant and the breakfast bar was stocked with old food and stuff that looks like it should have been throwed away last week.  The motel claims to be pet free, but they allow pets.  There was dogs running around and in guest rooms and using the parking lot and side walks as a toilet.   Then when you go to the front and ask a question and say something to the owners, they are rude.  I asked for a receipt for my stay and they told me no.  I have called the Super 8 Corporate Office, buy they are not helpful in getting me a receipt either.  So much for franchises.  Places like this one is who gives others bad names.  Stay away from this one, it is really bad and a waste of your hard earn money.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>This motel was a nightmare.  The rooms are old and the carpet very dirty.  We stayed in one of the bigger rooms and moved a chair and there was chips and candy under the chair, so the motel does not do a very good cleaning.  They had to pick up the towels every day as they did not have enough to towels to supply every rooms.  You could be short towels every day.  We had one towel and one washcloth for 2 people on one day.  No hand towels at all.  This motel does not have a resturant and the breakfast bar was stocked with old food and stuff that looks like it should have been throwed away last week.  The motel claims to be pet free, but they allow pets.  There was dogs running around and in guest rooms and using the parking lot and side walks as a toilet.   Then when you go to the front and ask a question and say something to the owners, they are rude.  I asked for a receipt for my stay and they told me no.  I have called the Super 8 Corporate Office, buy they are not helpful in getting me a receipt either.  So much for franchises.  Places like this one is who gives others bad names.  Stay away from this one, it is really bad and a waste of your hard earn money.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r151976094-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1417,45 @@
   </si>
   <si>
     <t>After booking 4 rooms, 3 rooms had issues, the worst being, the door barely opened, the toilet didn't flush and the water in the bathroom only had one temperature....SCALDING HOT, our 6 month pregnant daughter and her husband had this room, and the front desk wouldn;t do a darn thing about it...said we should have complained earlier, we'll honey, we didn;t know it til midnight and we left the next morning...tried to get a refund on that room, said to call the owner, he never answered, called corporate to fill out a complaint...waiting to hear from them.  I would never stay here again, they were very rude and had no compassion what so ever... even though they acknowledged that the room had issues, Never ever again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r120768993-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>120768993</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>Terrible customer service and attitude!</t>
+  </si>
+  <si>
+    <t>We got in late. Our TV didn't work so we called the front desk. Theist helpful response was that we should check ourselves if all the cables were there. After some discussion, the front desk person finally sent two people over to fiddle with the TV. They were unprofessional and reeked of smoke, stinking up our room. They couldn't figure it out and left so we called the front desk and demanded another room if it couldn't get fixed. A TV is such a basic amenity -- come on! So they send the manager in. He doesn't say a word, except, "Where's the remote?" he messes with the TV and it works. Then he tosses the remote on the bed and marches out without a word. Nothing. What bothers me more than anything was they unprofessional attitude. The Answer made us feel like an extreme irritation, never mind that his staff also couldn't make it work. I work in customer service as a manager and never would have treated anybody like that. We will not be coming backMoreShow less</t>
+  </si>
+  <si>
+    <t>We got in late. Our TV didn't work so we called the front desk. Theist helpful response was that we should check ourselves if all the cables were there. After some discussion, the front desk person finally sent two people over to fiddle with the TV. They were unprofessional and reeked of smoke, stinking up our room. They couldn't figure it out and left so we called the front desk and demanded another room if it couldn't get fixed. A TV is such a basic amenity -- come on! So they send the manager in. He doesn't say a word, except, "Where's the remote?" he messes with the TV and it works. Then he tosses the remote on the bed and marches out without a word. Nothing. What bothers me more than anything was they unprofessional attitude. The Answer made us feel like an extreme irritation, never mind that his staff also couldn't make it work. I work in customer service as a manager and never would have treated anybody like that. We will not be coming backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r120616418-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>120616418</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>Large clean rooms</t>
+  </si>
+  <si>
+    <t>We have stayed at Super 8 Motels in the past and they have been pretty crummy. However, that wasn't the case with this one. Our room was on the ground floor and was very large and clean. It had 2 easy chairs and a table. Across the room from these was a desk with a table. A king size bed took up the rest of the room along with a microwave, refrigerator, and TV. The place had a coffee maker and free wifi. It is in a good location with plenty of places to eat in the area. The property is well lighted at night. The pool is small and didn't look clean, however that is not a problem as we don't use motel pools anyway. The only complaint that we had was that the bathroom door would not close completely. Since we didn't eat any of the complimentary breakfast, I cannot comment on that. For the total price of $53 and some change, this place was a real bargain.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We have stayed at Super 8 Motels in the past and they have been pretty crummy. However, that wasn't the case with this one. Our room was on the ground floor and was very large and clean. It had 2 easy chairs and a table. Across the room from these was a desk with a table. A king size bed took up the rest of the room along with a microwave, refrigerator, and TV. The place had a coffee maker and free wifi. It is in a good location with plenty of places to eat in the area. The property is well lighted at night. The pool is small and didn't look clean, however that is not a problem as we don't use motel pools anyway. The only complaint that we had was that the bathroom door would not close completely. Since we didn't eat any of the complimentary breakfast, I cannot comment on that. For the total price of $53 and some change, this place was a real bargain.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r119617209-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
@@ -1003,6 +1528,42 @@
   </si>
   <si>
     <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r89748374-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>89748374</t>
+  </si>
+  <si>
+    <t>12/13/2010</t>
+  </si>
+  <si>
+    <t>Two Star rating for a reason!!!!</t>
+  </si>
+  <si>
+    <t>Only hotel with available rooms that we could find in the area ~ in town for funeral.                                                                                                       Water is overly chlorinated (the smell is sickening)Breakfast~ watered down orange juice~warm milk~bitter coffee~stale cereal and rolls~microwave sandwiches w/expired dates...REALLY???Last night stay ~ drunken wedding party checked in~yelling~argueing~pounding on doors (ours included)~running up and down balcony~no respect... Our complaints fell on deaf ears~(6) phone calls (front desk~super 8 customer service~expedia~hotels.com). &amp;amp;quot;Call this other number&amp;amp;quot; ~ was the generic answer each time I called... This particular super 8 has a &amp;amp;quot;2&amp;amp;quot; rating for a reason.. Take heed ~ you&amp;amp;#39;ve been warned!!!!!!</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r70283784-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
+  </si>
+  <si>
+    <t>70283784</t>
+  </si>
+  <si>
+    <t>07/09/2010</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here.  Good place to sleep, thats about it.</t>
+  </si>
+  <si>
+    <t>Front desk staff unfriendly.  Breakfast promptly closed at 9am, which was disappointing.  Pool closed at 9pm as well.  The grounds were clean and the room served it's purpose for $70 per night, however.  It was quiet and the room was cleaned nicely every day, although it looked a bit outdated.  I'd stay here again if nothing else was available, it wasn't terrible, but definitely isn't at the top of my list of places to return to.  You can rent condos on the lake for $100 to $150 per night that offer full kitchens and bedrooms.  I would think that would be much more worth it.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56311-d555269-r19747855-Super_8_by_Wyndham_Montgomery_Lake_Conroe-Montgomery_Texas.html</t>
@@ -1570,7 +2131,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1587,14 +2148,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1610,40 +2167,44 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
         <v>5</v>
       </c>
@@ -1654,10 +2215,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1673,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1682,43 +2247,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1734,7 +2295,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1743,47 +2304,47 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1799,7 +2360,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1808,53 +2369,35 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>83</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1870,60 +2413,52 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="X7" t="s">
         <v>91</v>
       </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>92</v>
-      </c>
-      <c r="X7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1939,62 +2474,54 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2010,7 +2537,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2019,43 +2546,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X9" t="s">
-        <v>112</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2071,7 +2598,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2080,49 +2607,53 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -2138,7 +2669,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2147,32 +2678,38 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2183,7 +2720,7 @@
         <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -2199,7 +2736,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2208,32 +2745,36 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2244,7 +2785,7 @@
         <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2260,7 +2801,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2269,16 +2810,16 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -2287,35 +2828,35 @@
         <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
         <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2331,48 +2872,60 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
         <v>141</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" t="s">
-        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="X14" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2388,62 +2941,58 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>147</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>148</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>149</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>150</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>151</v>
       </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>152</v>
-      </c>
       <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
         <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2459,7 +3008,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2468,43 +3017,51 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K16" t="s">
         <v>157</v>
       </c>
+      <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2520,52 +3077,62 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>163</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s">
         <v>164</v>
-      </c>
-      <c r="J17" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" t="s">
-        <v>167</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>168</v>
-      </c>
-      <c r="O17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>160</v>
-      </c>
-      <c r="X17" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -2581,34 +3148,34 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>170</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" t="s">
-        <v>174</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>175</v>
-      </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2620,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2642,52 +3209,58 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
         <v>177</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>178</v>
       </c>
-      <c r="J19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" t="s">
-        <v>181</v>
-      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -2703,56 +3276,58 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
         <v>184</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>185</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>186</v>
       </c>
-      <c r="K20" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" t="s">
-        <v>188</v>
-      </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -2768,34 +3343,34 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
         <v>190</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>191</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>192</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>193</v>
       </c>
-      <c r="L21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>195</v>
-      </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2807,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -2829,62 +3404,52 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
         <v>197</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>198</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>199</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y22" t="s">
         <v>200</v>
-      </c>
-      <c r="L22" t="s">
-        <v>201</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>202</v>
-      </c>
-      <c r="O22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
-        <v>160</v>
-      </c>
-      <c r="X22" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -2900,58 +3465,52 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
         <v>204</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>205</v>
       </c>
-      <c r="J23" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L23" t="s">
-        <v>208</v>
-      </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="X23" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -2967,42 +3526,46 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
         <v>210</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>211</v>
       </c>
-      <c r="J24" t="s">
-        <v>212</v>
-      </c>
-      <c r="K24" t="s">
-        <v>213</v>
-      </c>
-      <c r="L24" t="s">
-        <v>214</v>
-      </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3012,13 +3575,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="X24" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
@@ -3034,7 +3597,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3043,43 +3606,51 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K25" t="s">
-        <v>222</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="X25" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -3095,7 +3666,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3104,53 +3675,43 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -3166,7 +3727,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3175,26 +3736,22 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>241</v>
-      </c>
-      <c r="O27" t="s">
-        <v>101</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
@@ -3204,10 +3761,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>179</v>
+      </c>
+      <c r="X27" t="s">
+        <v>180</v>
+      </c>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
@@ -3223,7 +3784,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3232,39 +3793,53 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
@@ -3280,7 +3855,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3289,43 +3864,43 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="O29" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -3341,7 +3916,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3350,39 +3925,49 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>242</v>
+      </c>
+      <c r="X30" t="s">
+        <v>243</v>
+      </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -3398,7 +3983,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3407,44 +3992,44 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
-      </c>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
+      <c r="W31" t="s">
+        <v>242</v>
+      </c>
+      <c r="X31" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3459,7 +4044,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3468,49 +4053,43 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>242</v>
+      </c>
+      <c r="X32" t="s">
+        <v>243</v>
+      </c>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
@@ -3526,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3535,49 +4114,43 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>242</v>
+      </c>
+      <c r="X33" t="s">
+        <v>243</v>
+      </c>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -3593,7 +4166,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3602,49 +4175,43 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>242</v>
+      </c>
+      <c r="X34" t="s">
+        <v>243</v>
+      </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
@@ -3660,7 +4227,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3669,49 +4236,49 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>242</v>
+      </c>
+      <c r="X35" t="s">
+        <v>243</v>
+      </c>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
@@ -3727,7 +4294,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3736,49 +4303,49 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>242</v>
+      </c>
+      <c r="X36" t="s">
+        <v>243</v>
+      </c>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
@@ -3794,7 +4361,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3803,49 +4370,47 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>2</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>242</v>
+      </c>
+      <c r="X37" t="s">
+        <v>243</v>
+      </c>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
@@ -3861,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3870,49 +4435,43 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>74</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>242</v>
+      </c>
+      <c r="X38" t="s">
+        <v>243</v>
+      </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
@@ -3928,7 +4487,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -3937,45 +4496,53 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
         <v>2</v>
       </c>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>242</v>
+      </c>
+      <c r="X39" t="s">
+        <v>243</v>
+      </c>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
@@ -3991,7 +4558,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4000,45 +4567,43 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>242</v>
+      </c>
+      <c r="X40" t="s">
+        <v>243</v>
+      </c>
       <c r="Y40" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41">
@@ -4054,7 +4619,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4063,49 +4628,51 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
-      </c>
-      <c r="K41" t="s">
-        <v>328</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>242</v>
+      </c>
+      <c r="X41" t="s">
+        <v>243</v>
+      </c>
       <c r="Y41" t="s">
-        <v>329</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
@@ -4121,7 +4688,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4130,32 +4697,34 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4163,10 +4732,2013 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>242</v>
+      </c>
+      <c r="X42" t="s">
+        <v>243</v>
+      </c>
       <c r="Y42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>324</v>
+      </c>
+      <c r="J43" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" t="s">
+        <v>326</v>
+      </c>
+      <c r="L43" t="s">
+        <v>327</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>328</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>329</v>
+      </c>
+      <c r="X43" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s">
         <v>335</v>
+      </c>
+      <c r="L44" t="s">
+        <v>336</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>300</v>
+      </c>
+      <c r="O44" t="s">
+        <v>128</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>242</v>
+      </c>
+      <c r="X45" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>352</v>
+      </c>
+      <c r="X46" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>356</v>
+      </c>
+      <c r="J47" t="s">
+        <v>357</v>
+      </c>
+      <c r="K47" t="s">
+        <v>358</v>
+      </c>
+      <c r="L47" t="s">
+        <v>359</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>360</v>
+      </c>
+      <c r="X47" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>363</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>364</v>
+      </c>
+      <c r="J48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>368</v>
+      </c>
+      <c r="O48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" t="s">
+        <v>372</v>
+      </c>
+      <c r="L49" t="s">
+        <v>373</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>374</v>
+      </c>
+      <c r="X49" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>380</v>
+      </c>
+      <c r="L50" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>382</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>385</v>
+      </c>
+      <c r="K51" t="s">
+        <v>386</v>
+      </c>
+      <c r="L51" t="s">
+        <v>387</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>388</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J52" t="s">
+        <v>391</v>
+      </c>
+      <c r="K52" t="s">
+        <v>392</v>
+      </c>
+      <c r="L52" t="s">
+        <v>393</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>394</v>
+      </c>
+      <c r="O52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s">
+        <v>400</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>394</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>401</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>402</v>
+      </c>
+      <c r="J54" t="s">
+        <v>403</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>404</v>
+      </c>
+      <c r="O54" t="s">
+        <v>128</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>405</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>406</v>
+      </c>
+      <c r="J55" t="s">
+        <v>407</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>408</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>409</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>410</v>
+      </c>
+      <c r="J56" t="s">
+        <v>411</v>
+      </c>
+      <c r="K56" t="s">
+        <v>412</v>
+      </c>
+      <c r="L56" t="s">
+        <v>413</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>414</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>416</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>417</v>
+      </c>
+      <c r="J57" t="s">
+        <v>418</v>
+      </c>
+      <c r="K57" t="s">
+        <v>419</v>
+      </c>
+      <c r="L57" t="s">
+        <v>420</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>421</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>422</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>423</v>
+      </c>
+      <c r="J58" t="s">
+        <v>424</v>
+      </c>
+      <c r="K58" t="s">
+        <v>425</v>
+      </c>
+      <c r="L58" t="s">
+        <v>426</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>428</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>429</v>
+      </c>
+      <c r="J59" t="s">
+        <v>430</v>
+      </c>
+      <c r="K59" t="s">
+        <v>431</v>
+      </c>
+      <c r="L59" t="s">
+        <v>432</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s">
+        <v>75</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>435</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>436</v>
+      </c>
+      <c r="J60" t="s">
+        <v>437</v>
+      </c>
+      <c r="K60" t="s">
+        <v>438</v>
+      </c>
+      <c r="L60" t="s">
+        <v>439</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>433</v>
+      </c>
+      <c r="O60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>440</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>441</v>
+      </c>
+      <c r="J61" t="s">
+        <v>442</v>
+      </c>
+      <c r="K61" t="s">
+        <v>443</v>
+      </c>
+      <c r="L61" t="s">
+        <v>444</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>445</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>447</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>448</v>
+      </c>
+      <c r="J62" t="s">
+        <v>449</v>
+      </c>
+      <c r="K62" t="s">
+        <v>450</v>
+      </c>
+      <c r="L62" t="s">
+        <v>451</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" t="s">
+        <v>75</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>454</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>455</v>
+      </c>
+      <c r="J63" t="s">
+        <v>456</v>
+      </c>
+      <c r="K63" t="s">
+        <v>457</v>
+      </c>
+      <c r="L63" t="s">
+        <v>458</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>459</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L64" t="s">
+        <v>464</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>465</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>467</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>468</v>
+      </c>
+      <c r="J65" t="s">
+        <v>469</v>
+      </c>
+      <c r="K65" t="s">
+        <v>470</v>
+      </c>
+      <c r="L65" t="s">
+        <v>471</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>474</v>
+      </c>
+      <c r="J66" t="s">
+        <v>475</v>
+      </c>
+      <c r="K66" t="s">
+        <v>476</v>
+      </c>
+      <c r="L66" t="s">
+        <v>477</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>478</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>480</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>481</v>
+      </c>
+      <c r="J67" t="s">
+        <v>482</v>
+      </c>
+      <c r="K67" t="s">
+        <v>483</v>
+      </c>
+      <c r="L67" t="s">
+        <v>484</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>485</v>
+      </c>
+      <c r="O67" t="s">
+        <v>128</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>487</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>488</v>
+      </c>
+      <c r="J68" t="s">
+        <v>489</v>
+      </c>
+      <c r="K68" t="s">
+        <v>490</v>
+      </c>
+      <c r="L68" t="s">
+        <v>491</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>492</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>495</v>
+      </c>
+      <c r="J69" t="s">
+        <v>496</v>
+      </c>
+      <c r="K69" t="s">
+        <v>497</v>
+      </c>
+      <c r="L69" t="s">
+        <v>498</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>499</v>
+      </c>
+      <c r="O69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" t="s">
+        <v>502</v>
+      </c>
+      <c r="K70" t="s">
+        <v>503</v>
+      </c>
+      <c r="L70" t="s">
+        <v>504</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>505</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s">
+        <v>508</v>
+      </c>
+      <c r="K71" t="s">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s">
+        <v>510</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>511</v>
+      </c>
+      <c r="O71" t="s">
+        <v>75</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>512</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>513</v>
+      </c>
+      <c r="J72" t="s">
+        <v>514</v>
+      </c>
+      <c r="K72" t="s">
+        <v>515</v>
+      </c>
+      <c r="L72" t="s">
+        <v>516</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>517</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53952</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>518</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>519</v>
+      </c>
+      <c r="J73" t="s">
+        <v>520</v>
+      </c>
+      <c r="K73" t="s">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s">
+        <v>522</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
